--- a/graph_expr/output/goodcol_outputs- Email_lb20_lb20_cyc_d_q7/Email_lb20_lb20_cyc_d_q7__ansgrBYVIEWS_newcols_rmvEmpty.xlsx
+++ b/graph_expr/output/goodcol_outputs- Email_lb20_lb20_cyc_d_q7/Email_lb20_lb20_cyc_d_q7__ansgrBYVIEWS_newcols_rmvEmpty.xlsx
@@ -218,13 +218,12 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -255,6 +254,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -305,8 +317,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +342,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,410 +381,410 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.01953125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>53054</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>10313</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>3154917</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>0.52</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>53054</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>10313</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>3154917</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>0.58</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>53054</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>10313</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>3154917</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <f aca="false">ROUND(AVERAGE(E7:E9),2)</f>
         <v>0.53</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <f aca="false">ROUND(AVERAGE(G7:G9),2)</f>
         <v>1.35</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>53054</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>10313</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>10000000</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>3154917</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1.12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>53054</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>10313</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>10000000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -792,413 +812,413 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0.47</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>53054</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>10313</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>10000000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="2" t="n">
         <v>3154917</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <f aca="false">J2-H2</f>
         <v>3144604</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <v>53054</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="6" t="n">
         <v>10313</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="6" t="n">
         <v>10000000</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="6" t="n">
         <v>3154917</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <f aca="false">J3-H3</f>
         <v>3144604</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="3"/>
+      <c r="C4" s="5" t="n">
         <v>7.61</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>5.65</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>14.25</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>53054</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>10313</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <v>3154917</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>3144604</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="n">
         <v>0.45</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>6.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>8.03</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>53054</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>10313</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <v>3154917</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>3144604</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="3"/>
+      <c r="C6" s="5" t="n">
         <v>4.03</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>6.02</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="n">
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <v>11.16</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>53054</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>10313</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="5" t="n">
         <v>3154917</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>3144604</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>6.88</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>4.9</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="n">
         <v>12.14</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="9" t="n">
         <v>53054</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="9" t="n">
         <v>10313</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="9" t="n">
         <v>3154917</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>3144604</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>4.99</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="n">
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="n">
         <v>5.57</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="9" t="n">
         <v>53054</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="9" t="n">
         <v>10313</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="9" t="n">
         <v>3154917</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>3144604</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>3.12</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>4.8</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="n">
         <v>8.37</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="9" t="n">
         <v>53054</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="9" t="n">
         <v>10313</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="9" t="n">
         <v>3154917</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>3144604</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
